--- a/sentiment_scores.xlsx
+++ b/sentiment_scores.xlsx
@@ -487,7 +487,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>ABT</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -495,60 +495,60 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08:00AM</t>
+          <t>08:15AM</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Accenture PLC: An Exploration into Its Intrinsic Value</t>
+          <t>Biowearables 101: Health Tech That Goes Deeper</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>44.04</v>
+        <v>53.7</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.583</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.417</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5106000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>ABT</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>05:50PM</t>
+          <t>08:00AM</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Accenture (ACN) Outpaces Stock Market Gains: What You Should Know</t>
+          <t>Unlocking Intrinsic Value: Analysis of Abbott Laboratories</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>44.04</v>
+        <v>53.7</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.789</v>
+        <v>0.714</v>
       </c>
       <c r="H3" t="n">
-        <v>0.211</v>
+        <v>0.286</v>
       </c>
       <c r="I3" t="n">
         <v>0.34</v>
@@ -557,11 +557,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>ABBV</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -570,29 +570,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Invest with Confidence: Intrinsic Value Unveiled of Adobe Inc</t>
+          <t>The Art of Valuation: Discovering AbbVie Inc's Intrinsic Value</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>45.45</v>
+        <v>58.14</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.551</v>
+        <v>0.769</v>
       </c>
       <c r="H4" t="n">
-        <v>0.449</v>
+        <v>0.231</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6908</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>ABBV</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -600,28 +600,28 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>06:00AM</t>
+          <t>08:00AM</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The challenge of Apple's 'AI for the rest of us' is we don't know what it's for: Morning Brief</t>
+          <t>BOTOX Cosmetic (onabotulinumtoxinA) Reveals 2024 Women Entrepreneur Grant Recipients</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>45.45</v>
+        <v>58.14</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.762</v>
       </c>
       <c r="H5" t="n">
-        <v>0.067</v>
+        <v>0.238</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0772</v>
+        <v>0.3612</v>
       </c>
     </row>
     <row r="6">
@@ -635,12 +635,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>07:37AM</t>
+          <t>09:22AM</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5 Things to Know Before the Stock Market Opens</t>
+          <t>May CPI, Fed decision, Apple's record high: 3 Things</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -670,12 +670,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>07:33AM</t>
+          <t>09:08AM</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Kunst: Apple Intelligence won't lead to a surge in iPhone sales</t>
+          <t>Why Apple Stock Is Having Such a Strong Moment</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -685,106 +685,106 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.744</v>
+        <v>0.68</v>
       </c>
       <c r="H7" t="n">
-        <v>0.256</v>
+        <v>0.32</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4767</v>
+        <v>0.5106000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AIG</t>
+          <t>ACN</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>07:24AM</t>
+          <t>08:00AM</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Here's Why Mr. Cooper Group (COOP) Rose in Q1</t>
+          <t>Accenture PLC: An Exploration into Its Intrinsic Value</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>34.26</v>
+        <v>44.04</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.583</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.417</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.5106000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AIG</t>
+          <t>ACN</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>06:30AM</t>
+          <t>05:50PM</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>AIG Completes Deconsolidation of Corebridge Financial</t>
+          <t>Accenture (ACN) Outpaces Stock Market Gains: What You Should Know</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>34.26</v>
+        <v>44.04</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0.789</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.211</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>AIG</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>08:15AM</t>
+          <t>07:24AM</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Biowearables 101: Health Tech That Goes Deeper</t>
+          <t>Here's Why Mr. Cooper Group (COOP) Rose in Q1</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>53.7</v>
+        <v>34.26</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -802,77 +802,77 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>AIG</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45455</v>
+        <v>45453</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>08:00AM</t>
+          <t>06:30AM</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Unlocking Intrinsic Value: Analysis of Abbott Laboratories</t>
+          <t>AIG Completes Deconsolidation of Corebridge Financial</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>53.7</v>
+        <v>34.26</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.714</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>ADBE</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>08:00AM</t>
+          <t>08:06AM</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>The Art of Valuation: Discovering AbbVie Inc's Intrinsic Value</t>
+          <t>Adobe Results to Reveal Scale of Threat From GenAI Competition</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>58.14</v>
+        <v>45.45</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.274</v>
       </c>
       <c r="G12" t="n">
-        <v>0.769</v>
+        <v>0.726</v>
       </c>
       <c r="H12" t="n">
-        <v>0.231</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.34</v>
+        <v>-0.5266999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>ADBE</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -885,29 +885,29 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>BOTOX Cosmetic (onabotulinumtoxinA) Reveals 2024 Women Entrepreneur Grant Recipients</t>
+          <t>Invest with Confidence: Intrinsic Value Unveiled of Adobe Inc</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>58.14</v>
+        <v>45.45</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.762</v>
+        <v>0.551</v>
       </c>
       <c r="H13" t="n">
-        <v>0.238</v>
+        <v>0.449</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3612</v>
+        <v>0.6908</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>AMGN</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -915,34 +915,34 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>07:45AM</t>
+          <t>09:00AM</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Better Artificial Intelligence (AI) Stock: AMD vs. Qualcomm</t>
+          <t>AMGEN TO PRESENT INNOVATIVE RHEUMATOLOGY RESEARCH AT EULAR 2024</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>45.68</v>
+        <v>48.58</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5</v>
+        <v>0.312</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7184</v>
+        <v>0.5622</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>AMGN</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
@@ -950,16 +950,16 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>02:33AM</t>
+          <t>03:29AM</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jim Cramer is Recommending These 10 Stocks in June</t>
+          <t>Amgen (AMGN) Stock Fell After Some Concerns Regarding The Released Clinical Data</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>45.68</v>
+        <v>48.58</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -977,59 +977,59 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AMT</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12:26PM</t>
+          <t>07:45AM</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Heres Why American Tower Corporation (AMT) Fell in Q1</t>
+          <t>Better Artificial Intelligence (AI) Stock: AMD vs. Qualcomm</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>54.03</v>
+        <v>45.68</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.7184</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AMT</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45453</v>
+        <v>45455</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>06:15PM</t>
+          <t>02:33AM</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>American Tower (AMT) Ascends But Remains Behind Market: Some Facts to Note</t>
+          <t>Jim Cramer is Recommending These 10 Stocks in June</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>54.03</v>
+        <v>45.68</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1047,24 +1047,24 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>AMT</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>08:05AM</t>
+          <t>12:26PM</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jim Cramer Says Amazon.com Inc (NASDAQ:AMZN) Has More Upside</t>
+          <t>Heres Why American Tower Corporation (AMT) Fell in Q1</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>59.99</v>
+        <v>54.03</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1082,42 +1082,42 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>AMT</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45455</v>
+        <v>45453</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>08:00AM</t>
+          <t>06:15PM</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3 Top Artificial Intelligence Stocks to Buy in June</t>
+          <t>American Tower (AMT) Ascends But Remains Behind Market: Some Facts to Note</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>59.99</v>
+        <v>54.03</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AMGN</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
@@ -1125,16 +1125,16 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>03:29AM</t>
+          <t>08:05AM</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Amgen (AMGN) Stock Fell After Some Concerns Regarding The Released Clinical Data</t>
+          <t>Jim Cramer Says Amazon.com Inc (NASDAQ:AMZN) Has More Upside</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>48.58</v>
+        <v>59.99</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1152,59 +1152,59 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AMGN</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>09:39AM</t>
+          <t>08:00AM</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Is Amgen Inc (NASDAQ:AMGN) the Top Dividend Stock to Buy in 2024?</t>
+          <t>3 Top Artificial Intelligence Stocks to Buy in June</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>48.58</v>
+        <v>59.99</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.859</v>
+        <v>0.55</v>
       </c>
       <c r="H21" t="n">
-        <v>0.141</v>
+        <v>0.45</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2023</v>
+        <v>0.5994</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>AVGO</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>04:58PM</t>
+          <t>08:52AM</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Boeing Books Just 4 Orders In May. The Stock Falls.</t>
+          <t>How To Earn $500 A Month From Broadcom Stock Ahead Of Q2 Earnings</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>54.38</v>
+        <v>64.27</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1222,7 +1222,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>AVGO</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
@@ -1230,16 +1230,16 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>03:27PM</t>
+          <t>08:30AM</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Boeing Received Only 1 New Order in May; Stock Tumbles</t>
+          <t>Funds Keep Pouncing on Netflix Stock, Broadcom, Others</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>54.38</v>
+        <v>64.27</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1257,24 +1257,24 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>AXP</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>06:30AM</t>
+          <t>03:02PM</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>These Could Be the Next Monster AI Stock Splits After Nvidia</t>
+          <t>7 Blue-Chip Stocks That Will Truck Past Any Market Jitters</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>64.27</v>
+        <v>32.3</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1292,42 +1292,42 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>AXP</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>06:05PM</t>
+          <t>02:50PM</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>S&amp;P 500, Nasdaq new highs, Oracle earnings: Market Domination Overtime</t>
+          <t>The Dividend Doyens: 7 Stocks That Will Enrich Your Income Portfolio</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>64.27</v>
+        <v>32.3</v>
       </c>
       <c r="F25" t="n">
-        <v>0.118</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.882</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.0516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -1335,16 +1335,16 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>03:02PM</t>
+          <t>04:58PM</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>7 Blue-Chip Stocks That Will Truck Past Any Market Jitters</t>
+          <t>Boeing Books Just 4 Orders In May. The Stock Falls.</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>32.3</v>
+        <v>54.38</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1362,7 +1362,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
@@ -1370,16 +1370,16 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>02:50PM</t>
+          <t>03:27PM</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>The Dividend Doyens: 7 Stocks That Will Enrich Your Income Portfolio</t>
+          <t>Boeing Received Only 1 New Order in May; Stock Tumbles</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>32.3</v>
+        <v>54.38</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1397,7 +1397,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>BAC</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
@@ -1405,16 +1405,16 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>06:24AM</t>
+          <t>08:33AM</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3 No-Nonsense S&amp;P 500 Stocks to Buy and Hold Forever</t>
+          <t>The market's not looking at Apple the right way when it comes to AI, says BofA's Wamsi Mohan</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>56.15</v>
+        <v>49.08</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1432,36 +1432,36 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>BAC</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>09:15AM</t>
+          <t>02:33AM</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Is Booking Holdings Inc. (NASDAQ:BKNG) the Best Travel Stock to Buy This Summer?</t>
+          <t>Jim Cramer is Recommending These 10 Stocks in June</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>56.15</v>
+        <v>49.08</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.741</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.259</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1537,7 +1537,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BAC</t>
+          <t>BLK</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
@@ -1545,69 +1545,69 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>02:33AM</t>
+          <t>09:14AM</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Jim Cramer is Recommending These 10 Stocks in June</t>
+          <t>An Obvious Reason Musks Pay Package Will Pass</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>49.08</v>
+        <v>39.03</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.167</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0.833</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-0.1027</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BAC</t>
+          <t>BLK</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>04:29PM</t>
+          <t>09:05AM</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>From Speculation to Millionaire-Makers: 3 Penny Stocks With Bright Futures</t>
+          <t>BlackRock Scouts for Insurance Partnerships in Private-Debt Push</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>49.08</v>
+        <v>39.03</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.734</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.266</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.4404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BLK</t>
+          <t>BMY</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
@@ -1615,34 +1615,34 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>06:15AM</t>
+          <t>01:50AM</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>7 Growth Stocks BlackRock Is Buying (and You Should Too)</t>
+          <t>Evotec Announces Progress in Neuroscience Collaboration with Bristol Myers Squibb</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>39.03</v>
+        <v>50.45</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.755</v>
+        <v>0.763</v>
       </c>
       <c r="H34" t="n">
-        <v>0.245</v>
+        <v>0.237</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3818</v>
+        <v>0.4215</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BLK</t>
+          <t>BMY</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
@@ -1650,104 +1650,104 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>05:00PM</t>
+          <t>11:52AM</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>BlackRock Will Expand Offerings for Overseas Investors in Japan</t>
+          <t>Corporate Employers Accused of Increasing Risk Of Pension Shortfalls in Violation of Employee Retirement Income Security Act of 1974 ( ERISA ) (Brower Piven Release)</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>39.03</v>
+        <v>50.45</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="G35" t="n">
-        <v>0.777</v>
+        <v>0.657</v>
       </c>
       <c r="H35" t="n">
-        <v>0.223</v>
+        <v>0.083</v>
       </c>
       <c r="I35" t="n">
-        <v>0.3182</v>
+        <v>-0.6249</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHTR</t>
+          <t>BKNG</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>09:12AM</t>
+          <t>06:24AM</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>This Billionaire Likes Liberty Broadband Corp (NASDAQ:LBRDA) Despite Losses</t>
+          <t>3 No-Nonsense S&amp;P 500 Stocks to Buy and Hold Forever</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>52.1</v>
+        <v>56.15</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.415</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.585</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.8155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHTR</t>
+          <t>BKNG</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>45448</v>
+        <v>45454</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>09:00AM</t>
+          <t>09:15AM</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SPECTRUM DIGITAL EDUCATION TO AWARD $1 MILLION IN GRANTS FROM CHARTER COMMUNICATIONS 2024 PLEDGE</t>
+          <t>Is Booking Holdings Inc. (NASDAQ:BKNG) the Best Travel Stock to Buy This Summer?</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>52.1</v>
+        <v>56.15</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.636</v>
+        <v>0.741</v>
       </c>
       <c r="H37" t="n">
-        <v>0.364</v>
+        <v>0.259</v>
       </c>
       <c r="I37" t="n">
-        <v>0.7824</v>
+        <v>0.6369</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
@@ -1755,69 +1755,69 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>08:15AM</t>
+          <t>08:01AM</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Five S&amp;P 500 Stocks To Watch In Today's Market; Eli Lilly Reaches New High After Drug News</t>
+          <t>Dollar Tree, Inc. (NASDAQ:DLTR) Q1 2025 Earnings Call Transcript</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>34.07</v>
+        <v>33.72</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>02:50PM</t>
+          <t>06:30AM</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>The Dividend Doyens: 7 Stocks That Will Enrich Your Income Portfolio</t>
+          <t>Citi and Emirates NBD Collaborate to Launch First-of-Its-Kind 24/7 USD Cross Border Payments in the Middle East</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>34.07</v>
+        <v>33.72</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0.841</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.159</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.4648</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BMY</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
@@ -1825,34 +1825,34 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01:50AM</t>
+          <t>08:15AM</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Evotec Announces Progress in Neuroscience Collaboration with Bristol Myers Squibb</t>
+          <t>Five S&amp;P 500 Stocks To Watch In Today's Market; Eli Lilly Reaches New High After Drug News</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>50.45</v>
+        <v>34.07</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.763</v>
+        <v>0.93</v>
       </c>
       <c r="H40" t="n">
-        <v>0.237</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4215</v>
+        <v>0.0516</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BMY</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
@@ -1860,34 +1860,34 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>11:52AM</t>
+          <t>02:50PM</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Corporate Employers Accused of Increasing Risk Of Pension Shortfalls in Violation of Employee Retirement Income Security Act of 1974 ( ERISA ) (Brower Piven Release)</t>
+          <t>The Dividend Doyens: 7 Stocks That Will Enrich Your Income Portfolio</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>50.45</v>
+        <v>34.07</v>
       </c>
       <c r="F41" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.657</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.083</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.6249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>CMCSA</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
@@ -1895,69 +1895,69 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>08:01AM</t>
+          <t>08:00AM</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Dollar Tree, Inc. (NASDAQ:DLTR) Q1 2025 Earnings Call Transcript</t>
+          <t>Fox Corporation and FreeWheel Announce Expanded Partnership to Introduce Dynamic Ad Insertion for College Football on FOX and Proprietary AdRise Integration</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>33.72</v>
+        <v>40.97</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0.823</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.177</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.4767</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>CMCSA</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>06:30AM</t>
+          <t>04:18PM</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Citi and Emirates NBD Collaborate to Launch First-of-Its-Kind 24/7 USD Cross Border Payments in the Middle East</t>
+          <t>Warner Bros. Discovery Lands US Broadcast Rights to the French Open</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>33.72</v>
+        <v>40.97</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.841</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.159</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>CHTR</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
@@ -1965,69 +1965,69 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>05:22PM</t>
+          <t>09:12AM</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Oil prices tick higher on US inventory draw; Fed, CPI awaited</t>
+          <t>This Billionaire Likes Liberty Broadband Corp (NASDAQ:LBRDA) Despite Losses</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>57.63</v>
+        <v>52.1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.099</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.901</v>
+        <v>0.415</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.585</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.0258</v>
+        <v>0.8155</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>CHTR</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>45455</v>
+        <v>45448</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>11:06AM</t>
+          <t>09:00AM</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Crude oil settles higher on stronger demand outlook; Fed meeting gets underway</t>
+          <t>SPECTRUM DIGITAL EDUCATION TO AWARD $1 MILLION IN GRANTS FROM CHARTER COMMUNICATIONS 2024 PLEDGE</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>57.63</v>
+        <v>52.1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.536</v>
+        <v>0.636</v>
       </c>
       <c r="H45" t="n">
-        <v>0.155</v>
+        <v>0.364</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.3818</v>
+        <v>0.7824</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CMCSA</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
@@ -2035,34 +2035,34 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>08:00AM</t>
+          <t>04:57AM</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Fox Corporation and FreeWheel Announce Expanded Partnership to Introduce Dynamic Ad Insertion for College Football on FOX and Proprietary AdRise Integration</t>
+          <t>Oil prices higher after soft CPI release; US inventory draw helps</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>40.97</v>
+        <v>57.63</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.823</v>
+        <v>0.794</v>
       </c>
       <c r="H46" t="n">
-        <v>0.177</v>
+        <v>0.206</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4767</v>
+        <v>0.3818</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CMCSA</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
@@ -2070,139 +2070,139 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>04:18PM</t>
+          <t>11:06AM</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Warner Bros. Discovery Lands US Broadcast Rights to the French Open</t>
+          <t>Crude oil settles higher on stronger demand outlook; Fed meeting gets underway</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>40.97</v>
+        <v>57.63</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0.536</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>0.155</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>-0.3818</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>COP</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>07:43AM</t>
+          <t>03:15PM</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Coffee, sculptures and financial advice. Banks try to make new branches less intimidating</t>
+          <t>Why ConocoPhillips (NYSE:COP) is One of the Best Natural Gas and Oil Dividend Stock?</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>40.79</v>
+        <v>36.43</v>
       </c>
       <c r="F48" t="n">
-        <v>0.178</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.822</v>
+        <v>0.642</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>0.358</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.3832</v>
+        <v>0.7717000000000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>COP</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>45450</v>
+        <v>45455</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>08:23PM</t>
+          <t>02:23PM</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Alternatives to Capital One: The Best Online Bank in 2024</t>
+          <t>Buffett Buys on a Budget: The 3 Cheapest Stocks Held by Berkshire Hathaway</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>40.79</v>
+        <v>36.43</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.6820000000000001</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0.318</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.6369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>COP</t>
+          <t>COST</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>03:15PM</t>
+          <t>09:30AM</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Why ConocoPhillips (NYSE:COP) is One of the Best Natural Gas and Oil Dividend Stock?</t>
+          <t>5 Good Reasons to Buy Party Supplies at Costco</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>36.43</v>
+        <v>78.81999999999999</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.642</v>
+        <v>0.517</v>
       </c>
       <c r="H50" t="n">
-        <v>0.358</v>
+        <v>0.483</v>
       </c>
       <c r="I50" t="n">
-        <v>0.7717000000000001</v>
+        <v>0.6808</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>COP</t>
+          <t>COST</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
@@ -2210,98 +2210,98 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>02:23PM</t>
+          <t>08:02AM</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Buffett Buys on a Budget: The 3 Cheapest Stocks Held by Berkshire Hathaway</t>
+          <t>Mama's Creations, Inc. (NASDAQ:MAMA) Q1 2025 Earnings Call Transcript</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>36.43</v>
+        <v>78.81999999999999</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0.755</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>0.245</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>0.3818</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>COF</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>45455</v>
+        <v>45453</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>08:02AM</t>
+          <t>07:43AM</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mama's Creations, Inc. (NASDAQ:MAMA) Q1 2025 Earnings Call Transcript</t>
+          <t>Coffee, sculptures and financial advice. Banks try to make new branches less intimidating</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>78.81999999999999</v>
+        <v>40.79</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>0.178</v>
       </c>
       <c r="G52" t="n">
-        <v>0.755</v>
+        <v>0.822</v>
       </c>
       <c r="H52" t="n">
-        <v>0.245</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.3818</v>
+        <v>-0.3832</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>COF</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>45455</v>
+        <v>45450</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>05:05AM</t>
+          <t>08:23PM</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Could Costco Wholesale Stock Hit $1,000 This Year?</t>
+          <t>Alternatives to Capital One: The Best Online Bank in 2024</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>78.81999999999999</v>
+        <v>40.79</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>0.318</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>0.6369</v>
       </c>
     </row>
     <row r="54">
@@ -2377,141 +2377,141 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>05:26PM</t>
+          <t>08:00AM</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Mold colonies and liquid-flooded air purifiers: CVS sourced medication from tainted factoriesand it has twice the amount of recalls on store-brand drugs than competitors</t>
+          <t>Invest with Confidence: Intrinsic Value Unveiled of Cisco Systems Inc</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>51.18</v>
+        <v>38.62</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0.584</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>0.416</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>0.6908</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>09:30AM</t>
+          <t>08:15AM</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Is CVS Health (CVS) a Buy as Wall Street Analysts Look Optimistic?</t>
+          <t>Cisco's Sustainability 101: What Is a Resilient Ecosystem?</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>51.18</v>
+        <v>38.62</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0.8129999999999999</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.187</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.3182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>45455</v>
+        <v>45453</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>08:00AM</t>
+          <t>10:08AM</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Invest with Confidence: Intrinsic Value Unveiled of Cisco Systems Inc</t>
+          <t>3 Dividend Stocks to Own for Reliable Income Streams</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>38.62</v>
+        <v>32.9</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0.584</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.416</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.6908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>08:15AM</t>
+          <t>09:00AM</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Cisco's Sustainability 101: What Is a Resilient Ecosystem?</t>
+          <t>Deere &amp; Company (DE) is Attracting Investor Attention: Here is What You Should Know</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>38.62</v>
+        <v>32.9</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0.795</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>0.205</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>0.4767</v>
       </c>
     </row>
     <row r="60">
@@ -2525,12 +2525,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>06:17AM</t>
+          <t>08:37AM</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Chevron (CVX) Suspends Wheatstone LNG Project for Repairs</t>
+          <t>Should You Buy the 3 Highest-Paying Dividend Stocks in the Dow Jones?</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2556,16 +2556,16 @@
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>03:14PM</t>
+          <t>06:17AM</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Is Chevron Corporation (NYSE:CVX) a Leading Natural Gas and Oil Dividend Stock?</t>
+          <t>Chevron (CVX) Suspends Wheatstone LNG Project for Repairs</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2575,36 +2575,36 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.3612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CVS</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>10:08AM</t>
+          <t>05:26PM</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3 Dividend Stocks to Own for Reliable Income Streams</t>
+          <t>Mold colonies and liquid-flooded air purifiers: CVS sourced medication from tainted factoriesand it has twice the amount of recalls on store-brand drugs than competitors</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>32.9</v>
+        <v>51.18</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2622,42 +2622,42 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CVS</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>45455</v>
+        <v>45453</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>09:00AM</t>
+          <t>09:30AM</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Deere &amp; Company (DE) is Attracting Investor Attention: Here is What You Should Know</t>
+          <t>Is CVS Health (CVS) a Buy as Wall Street Analysts Look Optimistic?</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>32.9</v>
+        <v>51.18</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0.795</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>0.205</v>
+        <v>0.187</v>
       </c>
       <c r="I63" t="n">
-        <v>0.4767</v>
+        <v>0.3182</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
@@ -2665,34 +2665,34 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>08:00AM</t>
+          <t>04:39AM</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Beyond Market Price: Uncovering Danaher Corp's Intrinsic Value</t>
+          <t>Nelson Peltzs Trian Amasses Top 10 Stake in Terminix-Owner Rentokil</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>52.95</v>
+        <v>38.53</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.745</v>
+        <v>0.833</v>
       </c>
       <c r="H64" t="n">
-        <v>0.255</v>
+        <v>0.167</v>
       </c>
       <c r="I64" t="n">
-        <v>0.34</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
@@ -2700,34 +2700,34 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>09:40AM</t>
+          <t>04:18PM</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Is Danaher Corp (NYSE:DHR) the Best Undervalued Stock Pick of Billionaire Paul Tudor Jones?</t>
+          <t>Warner Bros. Discovery Lands US Broadcast Rights to the French Open</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>52.95</v>
+        <v>38.53</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.756</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.244</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.6369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>DHR</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
@@ -2735,34 +2735,34 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>04:39AM</t>
+          <t>08:00AM</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Nelson Peltzs Trian Amasses Top 10 Stake in Terminix-Owner Rentokil</t>
+          <t>Beyond Market Price: Uncovering Danaher Corp's Intrinsic Value</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>38.53</v>
+        <v>52.95</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0.833</v>
+        <v>0.745</v>
       </c>
       <c r="H66" t="n">
-        <v>0.167</v>
+        <v>0.255</v>
       </c>
       <c r="I66" t="n">
-        <v>0.2023</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>DHR</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
@@ -2770,34 +2770,34 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>04:18PM</t>
+          <t>09:40AM</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Warner Bros. Discovery Lands US Broadcast Rights to the French Open</t>
+          <t>Is Danaher Corp (NYSE:DHR) the Best Undervalued Stock Pick of Billionaire Paul Tudor Jones?</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>38.53</v>
+        <v>52.95</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0.756</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>0.244</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>0.6369</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>DOW</t>
+          <t>EMR</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
@@ -2805,174 +2805,174 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>02:57AM</t>
+          <t>09:00AM</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>JPMorgan Chase &amp; Co. (JPM) Surged Following Solid Financial Results And Positive Guidance</t>
+          <t>Emerson Releases 2023 Sustainability Report</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>42.27</v>
+        <v>42.04</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.658</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.342</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.6369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>DOW</t>
+          <t>EMR</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>45454</v>
+        <v>45450</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>11:30AM</t>
+          <t>02:28PM</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Dow Advances to #3 on Fair360's 2024 Top 50 Companies List</t>
+          <t>Analyst Report: Emerson Electric Co.</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>42.27</v>
+        <v>42.04</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0.847</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.153</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.2023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>DUK</t>
+          <t>DOW</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>45453</v>
+        <v>45455</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>03:51PM</t>
+          <t>02:57AM</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>The 7 Best Stocks to Buy to Avoid June Gloom</t>
+          <t>JPMorgan Chase &amp; Co. (JPM) Surged Following Solid Financial Results And Positive Guidance</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>52.38</v>
+        <v>42.27</v>
       </c>
       <c r="F70" t="n">
-        <v>0.363</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0.375</v>
+        <v>0.658</v>
       </c>
       <c r="H70" t="n">
-        <v>0.263</v>
+        <v>0.342</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.1531</v>
+        <v>0.6369</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>DUK</t>
+          <t>DOW</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>12:56PM</t>
+          <t>11:30AM</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Summer of Savings; Duke Energy Florida offers ways to lower energy use and save</t>
+          <t>Dow Advances to #3 on Fair360's 2024 Top 50 Companies List</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>52.38</v>
+        <v>42.27</v>
       </c>
       <c r="F71" t="n">
-        <v>0.112</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0.51</v>
+        <v>0.847</v>
       </c>
       <c r="H71" t="n">
-        <v>0.378</v>
+        <v>0.153</v>
       </c>
       <c r="I71" t="n">
-        <v>0.6369</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>FDX</t>
+          <t>DUK</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>45455</v>
+        <v>45453</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>07:25AM</t>
+          <t>03:51PM</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>FedEx to Lay Off up to 2,000 Employees in Europe Amid Cost-Cutting Efforts</t>
+          <t>The 7 Best Stocks to Buy to Avoid June Gloom</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>47.85</v>
+        <v>52.38</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>0.363</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>0.263</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>-0.1531</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>FDX</t>
+          <t>DUK</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
@@ -2980,69 +2980,69 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>07:04AM</t>
+          <t>12:56PM</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>FedEx to cut up to 2,000 back-office jobs in Europe amid weak freight demand</t>
+          <t>Summer of Savings; Duke Energy Florida offers ways to lower energy use and save</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>47.85</v>
+        <v>52.38</v>
       </c>
       <c r="F73" t="n">
-        <v>0.371</v>
+        <v>0.112</v>
       </c>
       <c r="G73" t="n">
-        <v>0.629</v>
+        <v>0.51</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>0.378</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.6705</v>
+        <v>0.6369</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>EMR</t>
+          <t>FDX</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>45450</v>
+        <v>45455</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>02:28PM</t>
+          <t>09:27AM</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Analyst Report: Emerson Electric Co.</t>
+          <t>FedEx to Cut Up to 2,000 Europe Jobs</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>42.04</v>
+        <v>47.85</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>0.231</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0.769</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>-0.2732</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>EMR</t>
+          <t>FDX</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
@@ -3050,16 +3050,16 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>11:30AM</t>
+          <t>08:01AM</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Why Is Emerson Electric (EMR) Down 8.3% Since Last Earnings Report?</t>
+          <t>FedEx to Lay Off up to 2,000 Employees in Europe Amid Cost-Cutting Efforts</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>42.04</v>
+        <v>47.85</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="B76" s="2" t="n">
@@ -3085,133 +3085,133 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>04:29PM</t>
+          <t>06:15PM</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>From Speculation to Millionaire-Makers: 3 Penny Stocks With Bright Futures</t>
+          <t>General Dynamics (GD) Stock Declines While Market Improves: Some Information for Investors</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>48.28</v>
+        <v>45.54</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0.734</v>
+        <v>0.671</v>
       </c>
       <c r="H76" t="n">
-        <v>0.266</v>
+        <v>0.329</v>
       </c>
       <c r="I76" t="n">
-        <v>0.4404</v>
+        <v>0.5994</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>45453</v>
+        <v>45450</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>05:45PM</t>
+          <t>05:46PM</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Ford Motor Company (F) Laps the Stock Market: Here's Why</t>
+          <t>General Dynamics Land Systems awarded Canadian Logistics Vehicle Modernization contract</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>48.28</v>
+        <v>45.54</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>0.5859</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B78" s="2" t="n">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>08:02AM</t>
+          <t>04:29PM</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Oracle Corporation (NYSE:ORCL) Q4 2024 Earnings Call Transcript</t>
+          <t>From Speculation to Millionaire-Makers: 3 Penny Stocks With Bright Futures</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>70.63</v>
+        <v>48.28</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0.734</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>0.266</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>0.4404</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B79" s="2" t="n">
-        <v>45455</v>
+        <v>45453</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>02:37AM</t>
+          <t>05:45PM</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Insider Sale: President Mark Reuss Sells 50,000 Shares of General Motors Co (GM)</t>
+          <t>Ford Motor Company (F) Laps the Stock Market: Here's Why</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>70.63</v>
+        <v>48.28</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0.845</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.155</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0.296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -3287,94 +3287,94 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>GILD</t>
         </is>
       </c>
       <c r="B82" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>06:15PM</t>
+          <t>09:00AM</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>General Dynamics (GD) Stock Declines While Market Improves: Some Information for Investors</t>
+          <t>How Luciana Preger Is Helping Advance Gilead's Work in Oncology</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>45.54</v>
+        <v>45.84</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0.671</v>
+        <v>0.804</v>
       </c>
       <c r="H82" t="n">
-        <v>0.329</v>
+        <v>0.196</v>
       </c>
       <c r="I82" t="n">
-        <v>0.5994</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>GILD</t>
         </is>
       </c>
       <c r="B83" s="2" t="n">
-        <v>45450</v>
+        <v>45451</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>05:46PM</t>
+          <t>06:50AM</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>General Dynamics Land Systems awarded Canadian Logistics Vehicle Modernization contract</t>
+          <t>3 Stocks With Mouthwatering Dividends You Can Buy Right Now</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>45.54</v>
+        <v>45.84</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0.5859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>GILD</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="B84" s="2" t="n">
-        <v>45451</v>
+        <v>45455</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>06:50AM</t>
+          <t>08:02AM</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>3 Stocks With Mouthwatering Dividends You Can Buy Right Now</t>
+          <t>Oracle Corporation (NYSE:ORCL) Q4 2024 Earnings Call Transcript</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>45.84</v>
+        <v>70.63</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -3392,42 +3392,42 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>GILD</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="B85" s="2" t="n">
-        <v>45450</v>
+        <v>45455</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>05:50PM</t>
+          <t>02:37AM</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Gilead Sciences (GILD) Gains As Market Dips: What You Should Know</t>
+          <t>Insider Sale: President Mark Reuss Sells 50,000 Shares of General Motors Co (GM)</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>45.84</v>
+        <v>70.63</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0.806</v>
+        <v>0.845</v>
       </c>
       <c r="H85" t="n">
-        <v>0.194</v>
+        <v>0.155</v>
       </c>
       <c r="I85" t="n">
-        <v>0.34</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="B86" s="2" t="n">
@@ -3435,34 +3435,34 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>08:15AM</t>
+          <t>08:54AM</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Five S&amp;P 500 Stocks To Watch In Today's Market; Eli Lilly Reaches New High After Drug News</t>
+          <t>Oil Rises After US Industry Data and Signs of Cooling Inflation</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>61.03</v>
+        <v>44.47</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0.0516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="B87" s="2" t="n">
@@ -3470,16 +3470,16 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>08:15AM</t>
+          <t>08:01AM</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2 No-Brainer Billionaire-Owned Stocks to Buy Right Now</t>
+          <t>Lululemon Athletica Inc. (NASDAQ:LULU) Q1 2025 Earnings Call Transcript</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>61.03</v>
+        <v>44.47</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -3567,7 +3567,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="B90" s="2" t="n">
@@ -3575,34 +3575,34 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>08:01AM</t>
+          <t>08:59AM</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Lululemon Athletica Inc. (NASDAQ:LULU) Q1 2025 Earnings Call Transcript</t>
+          <t>Why Oracles OpenAI Deal Is So Important for the Stock</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>44.47</v>
+        <v>61.17</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>0.189</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>0.2716</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="B91" s="2" t="n">
@@ -3610,16 +3610,16 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>06:25AM</t>
+          <t>08:33AM</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>3 Reasons Why Apple Stock Ought to Remain in Your Basket</t>
+          <t>Q4 2024 Oracle Corp Earnings Call</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>44.47</v>
+        <v>61.17</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>HON</t>
         </is>
       </c>
       <c r="B92" s="2" t="n">
@@ -3645,16 +3645,16 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>09:38PM</t>
+          <t>06:30AM</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Lynn Conway, leading computer scientist and transgender pioneer, dies at 85</t>
+          <t>HONEYWELL REVOLUTIONIZES LARGE-SCALE BATTERY MANUFACTURING WITH AUTOMATION SOFTWARE</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>48.11</v>
+        <v>64.89</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -3672,42 +3672,42 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>HON</t>
         </is>
       </c>
       <c r="B93" s="2" t="n">
-        <v>45455</v>
+        <v>45453</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>05:45PM</t>
+          <t>07:26PM</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>IBM (IBM) Stock Drops Despite Market Gains: Important Facts to Note</t>
+          <t>Analyst Report: Honeywell International Inc.</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>48.11</v>
+        <v>64.89</v>
       </c>
       <c r="F93" t="n">
-        <v>0.287</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0.713</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.3875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>GOOG</t>
         </is>
       </c>
       <c r="B94" s="2" t="n">
@@ -3715,34 +3715,34 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>08:15AM</t>
+          <t>08:59AM</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Five S&amp;P 500 Stocks To Watch In Today's Market; Eli Lilly Reaches New High After Drug News</t>
+          <t>Why Oracles OpenAI Deal Is So Important for the Stock</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>61.17</v>
+        <v>61.03</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0.93</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="H94" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.189</v>
       </c>
       <c r="I94" t="n">
-        <v>0.0516</v>
+        <v>0.2716</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>GOOG</t>
         </is>
       </c>
       <c r="B95" s="2" t="n">
@@ -3750,16 +3750,16 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>08:15AM</t>
+          <t>08:33AM</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2 No-Brainer Billionaire-Owned Stocks to Buy Right Now</t>
+          <t>Q4 2024 Oracle Corp Earnings Call</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>61.17</v>
+        <v>61.03</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -3777,7 +3777,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>HON</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="B96" s="2" t="n">
@@ -3785,16 +3785,16 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>06:30AM</t>
+          <t>09:38PM</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HONEYWELL REVOLUTIONIZES LARGE-SCALE BATTERY MANUFACTURING WITH AUTOMATION SOFTWARE</t>
+          <t>Lynn Conway, leading computer scientist and transgender pioneer, dies at 85</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>64.89</v>
+        <v>48.11</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -3812,112 +3812,112 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>HON</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="B97" s="2" t="n">
-        <v>45453</v>
+        <v>45455</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>07:26PM</t>
+          <t>05:45PM</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Analyst Report: Honeywell International Inc.</t>
+          <t>IBM (IBM) Stock Drops Despite Market Gains: Important Facts to Note</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>64.89</v>
+        <v>48.11</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>0.287</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0.713</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>-0.3875</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>INTU</t>
         </is>
       </c>
       <c r="B98" s="2" t="n">
-        <v>45455</v>
+        <v>45452</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>06:15AM</t>
+          <t>04:12AM</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Forget Nvidia: 2 Artificial Intelligence (AI) Stocks to Buy Now</t>
+          <t>Possible Stock Splits in 2024: 2 Artificial Intelligence (AI) Stocks Up 2,220% and 10,740% in 15 Years to Buy Now</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>45.59</v>
+        <v>33.04</v>
       </c>
       <c r="F98" t="n">
-        <v>0.158</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>0.583</v>
+        <v>0.853</v>
       </c>
       <c r="H98" t="n">
-        <v>0.258</v>
+        <v>0.147</v>
       </c>
       <c r="I98" t="n">
-        <v>0.296</v>
+        <v>0.4767</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>INTU</t>
         </is>
       </c>
       <c r="B99" s="2" t="n">
-        <v>45455</v>
+        <v>45449</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>05:18AM</t>
+          <t>09:00AM</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Should You Buy Nvidia Stock Instead of Intel Stock?</t>
+          <t>Intuit Inc. (INTU) is Attracting Investor Attention: Here is What You Should Know</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>45.59</v>
+        <v>33.04</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0.795</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>0.205</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>0.4767</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="B100" s="2" t="n">
@@ -3925,16 +3925,16 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>07:30AM</t>
+          <t>08:01AM</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>A Life Expansion Revolution Is Coming: 3 Stocks That Could Lead the Charge</t>
+          <t>Lululemon Athletica Inc. (NASDAQ:LULU) Q1 2025 Earnings Call Transcript</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>44.44</v>
+        <v>44.07</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="B101" s="2" t="n">
@@ -3960,34 +3960,34 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>06:10AM</t>
+          <t>08:01AM</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2 Stocks You Can Safely Hold for the Long Haul</t>
+          <t>Dollar Tree, Inc. (NASDAQ:DLTR) Q1 2025 Earnings Call Transcript</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>44.44</v>
+        <v>44.07</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>0.714</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.286</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0.4939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B102" s="2" t="n">
@@ -3995,34 +3995,34 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>08:01AM</t>
+          <t>06:15AM</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Lululemon Athletica Inc. (NASDAQ:LULU) Q1 2025 Earnings Call Transcript</t>
+          <t>Forget Nvidia: 2 Artificial Intelligence (AI) Stocks to Buy Now</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>44.07</v>
+        <v>45.59</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>0.158</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0.583</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>0.258</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B103" s="2" t="n">
@@ -4030,16 +4030,16 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>08:01AM</t>
+          <t>05:18AM</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Dollar Tree, Inc. (NASDAQ:DLTR) Q1 2025 Earnings Call Transcript</t>
+          <t>Should You Buy Nvidia Stock Instead of Intel Stock?</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>44.07</v>
+        <v>45.59</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4057,71 +4057,71 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B104" s="2" t="n">
-        <v>45452</v>
+        <v>45455</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>04:12AM</t>
+          <t>07:30AM</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Possible Stock Splits in 2024: 2 Artificial Intelligence (AI) Stocks Up 2,220% and 10,740% in 15 Years to Buy Now</t>
+          <t>A Life Expansion Revolution Is Coming: 3 Stocks That Could Lead the Charge</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>33.04</v>
+        <v>44.44</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>0.853</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0.147</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0.4767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B105" s="2" t="n">
-        <v>45449</v>
+        <v>45455</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>09:00AM</t>
+          <t>06:10AM</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Intuit Inc. (INTU) is Attracting Investor Attention: Here is What You Should Know</t>
+          <t>2 Stocks You Can Safely Hold for the Long Haul</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>33.04</v>
+        <v>44.44</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>0.795</v>
+        <v>0.714</v>
       </c>
       <c r="H105" t="n">
-        <v>0.205</v>
+        <v>0.286</v>
       </c>
       <c r="I105" t="n">
-        <v>0.4767</v>
+        <v>0.4939</v>
       </c>
     </row>
     <row r="106">
@@ -4197,42 +4197,42 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>LIN</t>
+          <t>LLY</t>
         </is>
       </c>
       <c r="B108" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>01:16PM</t>
+          <t>08:00AM</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Linde plc (NYSE:LIN): The Best International Dividend Stock According to Hedge Funds</t>
+          <t>Eli Lilly Runs Up 49% With Expectations For Weight-Loss Sales To Triple</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>51.26</v>
+        <v>78.23</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0.724</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0.276</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0.6369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>LIN</t>
+          <t>LLY</t>
         </is>
       </c>
       <c r="B109" s="2" t="n">
@@ -4240,209 +4240,209 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>11:04AM</t>
+          <t>07:30AM</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>12 Best International Dividend Stocks to Buy Now</t>
+          <t>A Life Expansion Revolution Is Coming: 3 Stocks That Could Lead the Charge</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>51.26</v>
+        <v>78.23</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0.6369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>LMT</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="B110" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>06:40AM</t>
+          <t>07:30AM</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Lockheed (LMT) Secures a Contract to Support F-35 Jet Program</t>
+          <t>4 Dividend Stocks to Double Up on Right Now</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>47.87</v>
+        <v>60.08</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>0.583</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>0.417</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0.6124000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>LMT</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="B111" s="2" t="n">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>06:15AM</t>
+          <t>05:45PM</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>The 3 Best Space Stocks to Buy in June 2024</t>
+          <t>Coca-Cola (KO) Stock Dips While Market Gains: Key Facts</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>47.87</v>
+        <v>60.08</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>0.656</v>
+        <v>0.769</v>
       </c>
       <c r="H111" t="n">
-        <v>0.344</v>
+        <v>0.231</v>
       </c>
       <c r="I111" t="n">
-        <v>0.6369</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="B112" s="2" t="n">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>07:30AM</t>
+          <t>01:16PM</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>4 Dividend Stocks to Double Up on Right Now</t>
+          <t>Linde plc (NYSE:LIN): The Best International Dividend Stock According to Hedge Funds</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>60.08</v>
+        <v>51.26</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>0.724</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>0.276</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>0.6369</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="B113" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>05:45PM</t>
+          <t>11:04AM</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Coca-Cola (KO) Stock Dips While Market Gains: Key Facts</t>
+          <t>12 Best International Dividend Stocks to Buy Now</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>60.08</v>
+        <v>51.26</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>0.769</v>
+        <v>0.625</v>
       </c>
       <c r="H113" t="n">
-        <v>0.231</v>
+        <v>0.375</v>
       </c>
       <c r="I113" t="n">
-        <v>0.34</v>
+        <v>0.6369</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>LMT</t>
         </is>
       </c>
       <c r="B114" s="2" t="n">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>08:00AM</t>
+          <t>06:40AM</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Eli Lilly Runs Up 49% With Expectations For Weight-Loss Sales To Triple</t>
+          <t>Lockheed (LMT) Secures a Contract to Support F-35 Jet Program</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>78.23</v>
+        <v>47.87</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>0.583</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>0.417</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>0.6124000000000001</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>LMT</t>
         </is>
       </c>
       <c r="B115" s="2" t="n">
@@ -4450,69 +4450,69 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>07:30AM</t>
+          <t>06:15AM</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>A Life Expansion Revolution Is Coming: 3 Stocks That Could Lead the Charge</t>
+          <t>The 3 Best Space Stocks to Buy in June 2024</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>78.23</v>
+        <v>47.87</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>0.656</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>0.344</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>0.6369</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>MCD</t>
         </is>
       </c>
       <c r="B116" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>02:49PM</t>
+          <t>03:33AM</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>7 Recession-Proof Stocks to Buy Now for Peace of Mind</t>
+          <t>Traditional Fast Food Stocks Q1 In Review: Papa John's (NASDAQ:PZZA) Vs Peers</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>41.57</v>
+        <v>37.5</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>0.696</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>0.304</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0.5423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>MCD</t>
         </is>
       </c>
       <c r="B117" s="2" t="n">
@@ -4520,34 +4520,34 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>02:28PM</t>
+          <t>03:27AM</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Lowe's names new chief marketing officer</t>
+          <t>Several Short-Term Headwinds Dragged McDonald's Corporation (MCD) in Q1</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>41.57</v>
+        <v>37.5</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>-0.0516</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>MDLZ</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="B118" s="2" t="n">
@@ -4555,34 +4555,34 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>04:45PM</t>
+          <t>02:49PM</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Mondelz 2023 Snacking Made Right Report: Letter from Chairman &amp; CEO</t>
+          <t>7 Recession-Proof Stocks to Buy Now for Peace of Mind</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>41.54</v>
+        <v>41.57</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>0.696</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>0.304</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>0.5423</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>MDLZ</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="B119" s="2" t="n">
@@ -4590,16 +4590,16 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>04:45PM</t>
+          <t>02:28PM</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Mondelez 2023 Snacking Made Right Report: Letter from Chairman &amp; CEO</t>
+          <t>Lowe's names new chief marketing officer</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>41.54</v>
+        <v>41.57</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -4687,164 +4687,164 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>MCD</t>
+          <t>MDT</t>
         </is>
       </c>
       <c r="B122" s="2" t="n">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>03:27AM</t>
+          <t>08:15AM</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Several Short-Term Headwinds Dragged McDonald's Corporation (MCD) in Q1</t>
+          <t>Abbott issues recall for Heartmate system monitor</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>37.5</v>
+        <v>46.97</v>
       </c>
       <c r="F122" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>-0.0516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>MCD</t>
+          <t>MDT</t>
         </is>
       </c>
       <c r="B123" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>05:45PM</t>
+          <t>07:30AM</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>McDonald's (MCD) Ascends But Remains Behind Market: Some Facts to Note</t>
+          <t>1 Medical Device Stock Perfectly Positioned to Benefit From AI</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>37.5</v>
+        <v>46.97</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>0.493</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>0.507</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>MET</t>
+          <t>MDLZ</t>
         </is>
       </c>
       <c r="B124" s="2" t="n">
-        <v>45449</v>
+        <v>45455</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>02:37PM</t>
+          <t>09:00AM</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>MetLife (MET) Explores Acquisition of Hayfin Capital Management (revised)</t>
+          <t>The SOUR PATCH KIDS Brand Turns Mischief into Currency in Its Own Immersive World on Roblox</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>37.46</v>
+        <v>41.54</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>0.857</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>-0.3612</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>MET</t>
+          <t>MDLZ</t>
         </is>
       </c>
       <c r="B125" s="2" t="n">
-        <v>45448</v>
+        <v>45454</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>03:45PM</t>
+          <t>04:45PM</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Starwood and Artisan face foreclosure on El Segundo office building</t>
+          <t>Mondelz 2023 Snacking Made Right Report: Letter from Chairman &amp; CEO</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>37.46</v>
+        <v>41.54</v>
       </c>
       <c r="F125" t="n">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>0.857</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>-0.128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>MDT</t>
+          <t>MET</t>
         </is>
       </c>
       <c r="B126" s="2" t="n">
-        <v>45454</v>
+        <v>45449</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>08:15AM</t>
+          <t>02:37PM</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Abbott issues recall for Heartmate system monitor</t>
+          <t>MetLife (MET) Explores Acquisition of Hayfin Capital Management (revised)</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>46.97</v>
+        <v>37.46</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4862,36 +4862,36 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>MDT</t>
+          <t>MET</t>
         </is>
       </c>
       <c r="B127" s="2" t="n">
-        <v>45455</v>
+        <v>45448</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>07:30AM</t>
+          <t>03:45PM</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>1 Medical Device Stock Perfectly Positioned to Benefit From AI</t>
+          <t>Starwood and Artisan face foreclosure on El Segundo office building</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>46.97</v>
+        <v>37.46</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="G127" t="n">
-        <v>0.493</v>
+        <v>0.857</v>
       </c>
       <c r="H127" t="n">
-        <v>0.507</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0.802</v>
+        <v>-0.128</v>
       </c>
     </row>
     <row r="128">
@@ -4967,24 +4967,24 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="B130" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>12:40PM</t>
+          <t>07:30AM</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>1 Wall Street Analyst Thinks 3M Stock Is Going to $120. Is It a Buy?</t>
+          <t>4 Dividend Stocks to Double Up on Right Now</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>58.87</v>
+        <v>63.17</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -5002,59 +5002,59 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="B131" s="2" t="n">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>08:15AM</t>
+          <t>06:30AM</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>How 3M Is Innovating To Address Climate Challenges</t>
+          <t>3 High-Yield Dividend Stocks to Buy for Huge Returns</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>58.87</v>
+        <v>63.17</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>0.843</v>
+        <v>0.753</v>
       </c>
       <c r="H131" t="n">
-        <v>0.157</v>
+        <v>0.247</v>
       </c>
       <c r="I131" t="n">
-        <v>0.0772</v>
+        <v>0.3182</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>MMM</t>
         </is>
       </c>
       <c r="B132" s="2" t="n">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>08:02AM</t>
+          <t>12:40PM</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>PetMed Express, Inc. (NASDAQ:PETS) Q4 2024 Earnings Call Transcript</t>
+          <t>1 Wall Street Analyst Thinks 3M Stock Is Going to $120. Is It a Buy?</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>42.62</v>
+        <v>58.87</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -5072,7 +5072,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>MMM</t>
         </is>
       </c>
       <c r="B133" s="2" t="n">
@@ -5080,28 +5080,28 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>08:02AM</t>
+          <t>08:15AM</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Motorcar Parts of America, Inc. (NASDAQ:MPAA) Q4 2024 Earnings Call Transcript</t>
+          <t>How 3M Is Innovating To Address Climate Challenges</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>42.62</v>
+        <v>58.87</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>0.843</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>0.157</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>0.0772</v>
       </c>
     </row>
     <row r="134">
@@ -5177,7 +5177,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B136" s="2" t="n">
@@ -5185,69 +5185,69 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>07:30AM</t>
+          <t>08:59AM</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>4 Dividend Stocks to Double Up on Right Now</t>
+          <t>Why Oracles OpenAI Deal Is So Important for the Stock</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>63.17</v>
+        <v>62.67</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>0.189</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>0.2716</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B137" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>06:30AM</t>
+          <t>08:40AM</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>3 High-Yield Dividend Stocks to Buy for Huge Returns</t>
+          <t>Microsoft Option Trade Costs Little, Could Pay Off $1,180</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>63.17</v>
+        <v>62.67</v>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="G137" t="n">
-        <v>0.753</v>
+        <v>0.877</v>
       </c>
       <c r="H137" t="n">
-        <v>0.247</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0.3182</v>
+        <v>-0.0314</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="B138" s="2" t="n">
@@ -5260,11 +5260,11 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Oracle Corporation (NYSE:ORCL) Q4 2024 Earnings Call Transcript</t>
+          <t>PetMed Express, Inc. (NASDAQ:PETS) Q4 2024 Earnings Call Transcript</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>62.67</v>
+        <v>42.62</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -5282,7 +5282,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="B139" s="2" t="n">
@@ -5290,104 +5290,104 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>08:00AM</t>
+          <t>08:02AM</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Microsoft Owns 6 Stocks  One Is Doing Really Well</t>
+          <t>Motorcar Parts of America, Inc. (NASDAQ:MPAA) Q4 2024 Earnings Call Transcript</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>62.67</v>
+        <v>42.62</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>0.745</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>0.255</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0.3384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>NEE</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B140" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>08:18PM</t>
+          <t>08:30AM</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Why NextEra Energy Sank Today</t>
+          <t>Funds Keep Pouncing on Netflix Stock, Broadcom, Others</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>44.19</v>
+        <v>59.76</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>0.656</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>0.344</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0.2732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>NEE</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B141" s="2" t="n">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>06:40PM</t>
+          <t>02:49PM</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Oil prices, National Amusement ends Skydance talks: Market Domination</t>
+          <t>7 Recession-Proof Stocks to Buy Now for Peace of Mind</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>44.19</v>
+        <v>59.76</v>
       </c>
       <c r="F141" t="n">
-        <v>0.112</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>0.654</v>
+        <v>0.696</v>
       </c>
       <c r="H141" t="n">
-        <v>0.234</v>
+        <v>0.304</v>
       </c>
       <c r="I141" t="n">
-        <v>0.3182</v>
+        <v>0.5423</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>NEE</t>
         </is>
       </c>
       <c r="B142" s="2" t="n">
@@ -5395,34 +5395,34 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>02:49PM</t>
+          <t>08:18PM</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>7 Recession-Proof Stocks to Buy Now for Peace of Mind</t>
+          <t>Why NextEra Energy Sank Today</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>59.76</v>
+        <v>44.19</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>0.696</v>
+        <v>0.656</v>
       </c>
       <c r="H142" t="n">
-        <v>0.304</v>
+        <v>0.344</v>
       </c>
       <c r="I142" t="n">
-        <v>0.5423</v>
+        <v>0.2732</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>NEE</t>
         </is>
       </c>
       <c r="B143" s="2" t="n">
@@ -5430,28 +5430,28 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>12:15PM</t>
+          <t>06:40PM</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>If You'd Invested $10,000 in Netflix Stock 12 Years Ago, Here's How Much You'd Have Today</t>
+          <t>Oil prices, National Amusement ends Skydance talks: Market Domination</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>59.76</v>
+        <v>44.19</v>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>0.112</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>0.654</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>0.234</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>0.3182</v>
       </c>
     </row>
     <row r="144">
@@ -5535,28 +5535,28 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>08:14AM</t>
+          <t>08:43AM</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>NVIDIA Corp (NVDA) VS Arista Networks Inc (ANET): Jim Cramer Shares His Opinion</t>
+          <t>Apple Stock Had Historic Tuesday. S&amp;P 500 Would Have Dropped Without Its Gain.</t>
         </is>
       </c>
       <c r="E146" t="n">
         <v>73.52</v>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="G146" t="n">
-        <v>0.845</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="H146" t="n">
-        <v>0.155</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0.296</v>
+        <v>-0.4168</v>
       </c>
     </row>
     <row r="147">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>08:02AM</t>
+          <t>08:14AM</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Oracle Corporation (NYSE:ORCL) Q4 2024 Earnings Call Transcript</t>
+          <t>NVIDIA Corp (NVDA) VS Arista Networks Inc (ANET): Jim Cramer Shares His Opinion</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -5585,19 +5585,19 @@
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>0.845</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>0.155</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="B148" s="2" t="n">
@@ -5605,69 +5605,69 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>08:02AM</t>
+          <t>08:28AM</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Oracle Corporation (NYSE:ORCL) Q4 2024 Earnings Call Transcript</t>
+          <t>Pfizer, Flagship name first target for multi-billion dollar collaboration: obesity</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>56.5</v>
+        <v>46.95</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>0.865</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>0.135</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>0.1027</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="B149" s="2" t="n">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>07:41AM</t>
+          <t>02:49PM</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Watch Out for These Levels in Oracle's Stock Price</t>
+          <t>7 Recession-Proof Stocks to Buy Now for Peace of Mind</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>56.5</v>
+        <v>46.95</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>0.696</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>0.304</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>0.5423</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="B150" s="2" t="n">
@@ -5675,34 +5675,34 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>05:50PM</t>
+          <t>02:49PM</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>PepsiCo (PEP) Stock Sinks As Market Gains: Here's Why</t>
+          <t>7 Recession-Proof Stocks to Buy Now for Peace of Mind</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>31.23</v>
+        <v>58.19</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>0.769</v>
+        <v>0.696</v>
       </c>
       <c r="H150" t="n">
-        <v>0.231</v>
+        <v>0.304</v>
       </c>
       <c r="I150" t="n">
-        <v>0.34</v>
+        <v>0.5423</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="B151" s="2" t="n">
@@ -5710,34 +5710,34 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>09:02AM</t>
+          <t>12:56PM</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>CRACKER JACK AND ALLYSON FELIX PARTNER TO DEBUT CRACKER JILL SPOTLIGHT SQUAD</t>
+          <t>Why Unilever PLC (NYSE:UL) is One of the Best International Dividend Stock?</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>31.23</v>
+        <v>58.19</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>0.724</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>0.276</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>0.6369</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="B152" s="2" t="n">
@@ -5745,34 +5745,34 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>02:49PM</t>
+          <t>05:50PM</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>7 Recession-Proof Stocks to Buy Now for Peace of Mind</t>
+          <t>PepsiCo (PEP) Stock Sinks As Market Gains: Here's Why</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>46.95</v>
+        <v>31.23</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>0.696</v>
+        <v>0.769</v>
       </c>
       <c r="H152" t="n">
-        <v>0.304</v>
+        <v>0.231</v>
       </c>
       <c r="I152" t="n">
-        <v>0.5423</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="B153" s="2" t="n">
@@ -5780,34 +5780,34 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>12:58PM</t>
+          <t>09:02AM</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Why AstraZeneca plc (NASDAQ:AZN) is Investors' One of Favorite International Dividend Stock?</t>
+          <t>CRACKER JACK AND ALLYSON FELIX PARTNER TO DEBUT CRACKER JILL SPOTLIGHT SQUAD</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>46.95</v>
+        <v>31.23</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>0.786</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
-        <v>0.214</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0.4588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>ORCL</t>
         </is>
       </c>
       <c r="B154" s="2" t="n">
@@ -5815,86 +5815,86 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>08:00AM</t>
+          <t>08:59AM</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Philip Morris International to Fund Law Clinics in Expansion of the Organizations U.S. Veterans Program</t>
+          <t>Why Oracles OpenAI Deal Is So Important for the Stock</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>69.84</v>
+        <v>56.5</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>0.189</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>0.2716</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>ORCL</t>
         </is>
       </c>
       <c r="B155" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>01:01PM</t>
+          <t>08:44AM</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Is Philip Morris International Inc. (NYSE:PM) the Top Dividend Stock to Buy in 2024 According to Billionaire Paul Tudor Jones?</t>
+          <t>These Stocks Are Moving the Most Today: Oracle, Apple, GameStop, Paramount, Rentokil, Caseys, Broadcom, and More</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>69.84</v>
+        <v>56.5</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>0.913</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>0.08699999999999999</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0.2023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="B156" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>12:19PM</t>
+          <t>08:00AM</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>The 3 Most Undervalued Nasdaq 100 Stocks to Buy: Summer 2024</t>
+          <t>Philip Morris International to Fund Law Clinics in Expansion of the Organizations U.S. Veterans Program</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>52.02</v>
+        <v>69.84</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5912,176 +5912,176 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="B157" s="2" t="n">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>09:53AM</t>
+          <t>01:01PM</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>3 No-Brainer Financial Stocks to Buy Right Now for Less Than $500</t>
+          <t>Is Philip Morris International Inc. (NYSE:PM) the Top Dividend Stock to Buy in 2024 According to Billionaire Paul Tudor Jones?</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>52.02</v>
+        <v>69.84</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>0.913</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SBUX</t>
         </is>
       </c>
       <c r="B158" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>02:49PM</t>
+          <t>07:00AM</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>7 Recession-Proof Stocks to Buy Now for Peace of Mind</t>
+          <t>1 Growth Stock Down 35% to Buy Right Now</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>58.19</v>
+        <v>48.84</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>0.696</v>
+        <v>0.729</v>
       </c>
       <c r="H158" t="n">
-        <v>0.304</v>
+        <v>0.271</v>
       </c>
       <c r="I158" t="n">
-        <v>0.5423</v>
+        <v>0.3818</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SBUX</t>
         </is>
       </c>
       <c r="B159" s="2" t="n">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>12:56PM</t>
+          <t>05:54PM</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Why Unilever PLC (NYSE:UL) is One of the Best International Dividend Stock?</t>
+          <t>Starbucks jumps on the $5 meal deal bandwagon</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>58.19</v>
+        <v>48.84</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>0.724</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
-        <v>0.276</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0.6369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>RTX</t>
         </is>
       </c>
       <c r="B160" s="2" t="n">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>07:00AM</t>
+          <t>02:28PM</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>1 Growth Stock Down 35% to Buy Right Now</t>
+          <t>Class action suit alleges Raytheon discriminates against older job seekers</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>48.84</v>
+        <v>57.96</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>0.729</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>0.271</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0.3818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>RTX</t>
         </is>
       </c>
       <c r="B161" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>05:54PM</t>
+          <t>12:52PM</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Starbucks jumps on the $5 meal deal bandwagon</t>
+          <t>Older worker accuses defense contractor of discriminating by seeking recent college grads</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>48.84</v>
+        <v>57.96</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>0.173</v>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>0.719</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>0.108</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>-0.2263</v>
       </c>
     </row>
     <row r="162">
@@ -6157,7 +6157,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>PYPL</t>
         </is>
       </c>
       <c r="B164" s="2" t="n">
@@ -6165,16 +6165,16 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>04:06PM</t>
+          <t>12:19PM</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Southern Company announces official partnership with U.S. UNDERRATED Golf Tour</t>
+          <t>The 3 Most Undervalued Nasdaq 100 Stocks to Buy: Summer 2024</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>53.87</v>
+        <v>52.02</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6192,77 +6192,77 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>PYPL</t>
         </is>
       </c>
       <c r="B165" s="2" t="n">
-        <v>45453</v>
+        <v>45455</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>05:56PM</t>
+          <t>09:53AM</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Virginia Natural Gas fuels workforce development with $620,000 investment</t>
+          <t>3 No-Brainer Financial Stocks to Buy Right Now for Less Than $500</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>53.87</v>
+        <v>52.02</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>0.762</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
-        <v>0.238</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0.3612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>SPG</t>
         </is>
       </c>
       <c r="B166" s="2" t="n">
-        <v>45454</v>
+        <v>45450</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>02:28PM</t>
+          <t>12:19PM</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Class action suit alleges Raytheon discriminates against older job seekers</t>
+          <t>Mall Retailers Are Alive and Well</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>57.96</v>
+        <v>54.89</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>0.46</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>0.5719</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>SPG</t>
         </is>
       </c>
       <c r="B167" s="2" t="n">
@@ -6270,86 +6270,86 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>12:52PM</t>
+          <t>08:25AM</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Older worker accuses defense contractor of discriminating by seeking recent college grads</t>
+          <t>Landlords close in on acquisition of Express</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>57.96</v>
+        <v>54.89</v>
       </c>
       <c r="F167" t="n">
-        <v>0.173</v>
+        <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>0.719</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
-        <v>0.108</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>-0.2263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>SCHW</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B168" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>02:07PM</t>
+          <t>06:17AM</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Unhappy customer: Why I finally took my business from Vanguard to Charles Schwab</t>
+          <t>7 Cheap Tech Stocks With 150% Upside to Buy Before It's Too Late</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>47.85</v>
+        <v>56.01</v>
       </c>
       <c r="F168" t="n">
-        <v>0.203</v>
+        <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>0.797</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>-0.4215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>SCHW</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B169" s="2" t="n">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>12:15PM</t>
+          <t>08:01AM</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Its not just you  Schwab, Thinkorswim and TD Ameritrade were down this morning</t>
+          <t>Zedge, Inc. (AMEX:ZDGE) Q3 2024 Earnings Call Transcript</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>47.85</v>
+        <v>56.01</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -6367,42 +6367,42 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>SCHW</t>
         </is>
       </c>
       <c r="B170" s="2" t="n">
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>12:19PM</t>
+          <t>02:07PM</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Mall Retailers Are Alive and Well</t>
+          <t>Unhappy customer: Why I finally took my business from Vanguard to Charles Schwab</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>54.89</v>
+        <v>47.85</v>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>0.203</v>
       </c>
       <c r="G170" t="n">
-        <v>0.46</v>
+        <v>0.797</v>
       </c>
       <c r="H170" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>0.5719</v>
+        <v>-0.4215</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>SCHW</t>
         </is>
       </c>
       <c r="B171" s="2" t="n">
@@ -6410,16 +6410,16 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>08:25AM</t>
+          <t>12:15PM</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Landlords close in on acquisition of Express</t>
+          <t>Its not just you  Schwab, Thinkorswim and TD Ameritrade were down this morning</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>54.89</v>
+        <v>47.85</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
@@ -6437,7 +6437,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>TGT</t>
         </is>
       </c>
       <c r="B172" s="2" t="n">
@@ -6445,16 +6445,16 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>06:17AM</t>
+          <t>06:30AM</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>7 Cheap Tech Stocks With 150% Upside to Buy Before It's Too Late</t>
+          <t>Target Corporation Increases Quarterly Dividend by 1.8 Percent</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>56.01</v>
+        <v>39.56</v>
       </c>
       <c r="F172" t="n">
         <v>0</v>
@@ -6472,24 +6472,24 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>TGT</t>
         </is>
       </c>
       <c r="B173" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>08:01AM</t>
+          <t>06:00AM</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Zedge, Inc. (AMEX:ZDGE) Q3 2024 Earnings Call Transcript</t>
+          <t>Target, Dick's Sporting Goods facing pushback from investors for 'going woke'</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>56.01</v>
+        <v>39.56</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
@@ -6507,24 +6507,24 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>TGT</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="B174" s="2" t="n">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>06:30AM</t>
+          <t>04:06PM</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Target Corporation Increases Quarterly Dividend by 1.8 Percent</t>
+          <t>Southern Company announces official partnership with U.S. UNDERRATED Golf Tour</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>39.56</v>
+        <v>53.87</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
@@ -6542,77 +6542,77 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>TGT</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="B175" s="2" t="n">
-        <v>45455</v>
+        <v>45453</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>06:00AM</t>
+          <t>05:56PM</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Target, Dick's Sporting Goods facing pushback from investors for 'going woke'</t>
+          <t>Virginia Natural Gas fuels workforce development with $620,000 investment</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>39.56</v>
+        <v>53.87</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>0.762</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>0.238</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>0.3612</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>TXN</t>
         </is>
       </c>
       <c r="B176" s="2" t="n">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>08:23AM</t>
+          <t>05:50PM</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>What's Going On With Chinese EV Stocks Nio, Li Auto, XPeng On Wednesday?</t>
+          <t>Texas Instruments (TXN) Stock Dips While Market Gains: Key Facts</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>44.62</v>
+        <v>62.52</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>0.789</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>0.211</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>TXN</t>
         </is>
       </c>
       <c r="B177" s="2" t="n">
@@ -6620,16 +6620,16 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>08:22AM</t>
+          <t>04:00AM</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>EU Hikes Tariffs By Up To 38% On Chinese EVs, Including Tesla</t>
+          <t>Here Are My 4 Biggest Dividend Stocks</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>44.62</v>
+        <v>62.52</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -6647,7 +6647,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>TMUS</t>
+          <t>TMO</t>
         </is>
       </c>
       <c r="B178" s="2" t="n">
@@ -6660,46 +6660,46 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Navigating Market Uncertainty: Intrinsic Value of T-Mobile US Inc</t>
+          <t>Beyond Market Price: Uncovering Thermo Fisher Scientific Inc's Intrinsic Value</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>71.26000000000001</v>
+        <v>48.16</v>
       </c>
       <c r="F178" t="n">
-        <v>0.203</v>
+        <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>0.593</v>
+        <v>0.789</v>
       </c>
       <c r="H178" t="n">
-        <v>0.203</v>
+        <v>0.211</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>TMUS</t>
+          <t>TMO</t>
         </is>
       </c>
       <c r="B179" s="2" t="n">
-        <v>45453</v>
+        <v>45450</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>12:00PM</t>
+          <t>09:16AM</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>T-Mobile to Host Q2 2024 Earnings Call on July 31, 2024</t>
+          <t>Here's Why Thermo Fisher (TMO) Should be in Your Portfolio</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>71.26000000000001</v>
+        <v>48.16</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -6717,7 +6717,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>TXN</t>
+          <t>TMUS</t>
         </is>
       </c>
       <c r="B180" s="2" t="n">
@@ -6725,51 +6725,51 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>05:50PM</t>
+          <t>08:00AM</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Texas Instruments (TXN) Stock Dips While Market Gains: Key Facts</t>
+          <t>Navigating Market Uncertainty: Intrinsic Value of T-Mobile US Inc</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>62.52</v>
+        <v>71.26000000000001</v>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>0.203</v>
       </c>
       <c r="G180" t="n">
-        <v>0.789</v>
+        <v>0.593</v>
       </c>
       <c r="H180" t="n">
-        <v>0.211</v>
+        <v>0.203</v>
       </c>
       <c r="I180" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>TXN</t>
+          <t>TMUS</t>
         </is>
       </c>
       <c r="B181" s="2" t="n">
-        <v>45455</v>
+        <v>45453</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>04:00AM</t>
+          <t>12:00PM</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Here Are My 4 Biggest Dividend Stocks</t>
+          <t>T-Mobile to Host Q2 2024 Earnings Call on July 31, 2024</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>62.52</v>
+        <v>71.26000000000001</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
@@ -6787,94 +6787,94 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="B182" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>08:00AM</t>
+          <t>09:28AM</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Beyond Market Price: Uncovering Thermo Fisher Scientific Inc's Intrinsic Value</t>
+          <t>Europe wants affordable electric vehicles from China. But not at the cost of its own auto industry</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>48.16</v>
+        <v>44.62</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>0.789</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>0.211</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="B183" s="2" t="n">
-        <v>45450</v>
+        <v>45455</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>09:16AM</t>
+          <t>09:18AM</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Here's Why Thermo Fisher (TMO) Should be in Your Portfolio</t>
+          <t>Florida pension board backs $56 billion pay package of Tesla CEO Musk</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>48.16</v>
+        <v>44.62</v>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>0.206</v>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>0.794</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>-0.1531</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>UNP</t>
+          <t>UPS</t>
         </is>
       </c>
       <c r="B184" s="2" t="n">
-        <v>45443</v>
+        <v>45454</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>07:02AM</t>
+          <t>02:50PM</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Union Pacific Corp's Dividend Analysis</t>
+          <t>The Dividend Doyens: 7 Stocks That Will Enrich Your Income Portfolio</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>37.87</v>
+        <v>38.51</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -6892,24 +6892,24 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>UNP</t>
+          <t>UPS</t>
         </is>
       </c>
       <c r="B185" s="2" t="n">
-        <v>45440</v>
+        <v>45455</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>07:45PM</t>
+          <t>07:07AM</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Analyst Report: Union Pacific Corporation</t>
+          <t>Where Will UPS Be in 3 Years?</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>37.87</v>
+        <v>38.51</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -6997,24 +6997,24 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>UPS</t>
+          <t>UNP</t>
         </is>
       </c>
       <c r="B188" s="2" t="n">
-        <v>45454</v>
+        <v>45443</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>02:50PM</t>
+          <t>07:02AM</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>The Dividend Doyens: 7 Stocks That Will Enrich Your Income Portfolio</t>
+          <t>Union Pacific Corp's Dividend Analysis</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>38.51</v>
+        <v>37.87</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -7032,24 +7032,24 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>UPS</t>
+          <t>UNP</t>
         </is>
       </c>
       <c r="B189" s="2" t="n">
-        <v>45455</v>
+        <v>45440</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>07:07AM</t>
+          <t>07:45PM</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Where Will UPS Be in 3 Years?</t>
+          <t>Analyst Report: Union Pacific Corporation</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>38.51</v>
+        <v>37.87</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
@@ -7071,32 +7071,32 @@
         </is>
       </c>
       <c r="B190" s="2" t="n">
-        <v>45453</v>
+        <v>45455</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>09:45AM</t>
+          <t>09:15AM</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>U.S. Bank Foundation Opportunity Fund Helps Small Businesses Grow and Thrive</t>
+          <t>Protecting Our Elders: A Family's Experience With Elder Financial Fraud</t>
         </is>
       </c>
       <c r="E190" t="n">
         <v>34.94</v>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>0.322</v>
       </c>
       <c r="G190" t="n">
-        <v>0.625</v>
+        <v>0.678</v>
       </c>
       <c r="H190" t="n">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>0.6597</v>
+        <v>-0.5859</v>
       </c>
     </row>
     <row r="191">
@@ -7106,16 +7106,16 @@
         </is>
       </c>
       <c r="B191" s="2" t="n">
-        <v>45455</v>
+        <v>45453</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>08:51AM</t>
+          <t>09:45AM</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>U.S. Bancorp (USB) Rides on Solid Deposit Base, High Costs Ail</t>
+          <t>U.S. Bank Foundation Opportunity Fund Helps Small Businesses Grow and Thrive</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -7125,13 +7125,13 @@
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>0.862</v>
+        <v>0.625</v>
       </c>
       <c r="H191" t="n">
-        <v>0.138</v>
+        <v>0.375</v>
       </c>
       <c r="I191" t="n">
-        <v>0.1531</v>
+        <v>0.6597</v>
       </c>
     </row>
     <row r="192">
@@ -7207,7 +7207,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>WFC</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="B194" s="2" t="n">
@@ -7215,34 +7215,34 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>08:01AM</t>
+          <t>09:00AM</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Lululemon Athletica Inc. (NASDAQ:LULU) Q1 2025 Earnings Call Transcript</t>
+          <t>Verizon Connect Honored as Silver Stevie  Award Winner in 2024 American Business Awards</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>36.02</v>
+        <v>50.67</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>0.39</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>0.9337</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>WFC</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="B195" s="2" t="n">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>08:01AM</t>
+          <t>08:37AM</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Dollar Tree, Inc. (NASDAQ:DLTR) Q1 2025 Earnings Call Transcript</t>
+          <t>Should You Buy the 3 Highest-Paying Dividend Stocks in the Dow Jones?</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>36.02</v>
+        <v>50.67</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -7277,77 +7277,77 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B196" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>06:30AM</t>
+          <t>08:02AM</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>3 High-Yield Dividend Stocks to Buy for Huge Returns</t>
+          <t>PetMed Express, Inc. (NASDAQ:PETS) Q4 2024 Earnings Call Transcript</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>50.67</v>
+        <v>66.97</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>0.753</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
-        <v>0.247</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>0.3182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B197" s="2" t="n">
-        <v>45453</v>
+        <v>45455</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>05:45PM</t>
+          <t>08:02AM</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Verizon Communications (VZ) Stock Drops Despite Market Gains: Important Facts to Note</t>
+          <t>Mama's Creations, Inc. (NASDAQ:MAMA) Q1 2025 Earnings Call Transcript</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>50.67</v>
+        <v>66.97</v>
       </c>
       <c r="F197" t="n">
-        <v>0.266</v>
+        <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>0.734</v>
+        <v>0.755</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>0.245</v>
       </c>
       <c r="I197" t="n">
-        <v>-0.3875</v>
+        <v>0.3818</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>WFC</t>
         </is>
       </c>
       <c r="B198" s="2" t="n">
@@ -7355,16 +7355,16 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>08:00AM</t>
+          <t>08:01AM</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Craig Morford to Retire as Vice President, General Counsel and Secretary; Jeff Taylor Elected as Vice President, General Counsel and Secretary</t>
+          <t>Lululemon Athletica Inc. (NASDAQ:LULU) Q1 2025 Earnings Call Transcript</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>39.93</v>
+        <v>36.02</v>
       </c>
       <c r="F198" t="n">
         <v>0</v>
@@ -7382,42 +7382,42 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>WFC</t>
         </is>
       </c>
       <c r="B199" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>03:14PM</t>
+          <t>08:01AM</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Exxon Mobil Corporation (NYSE:XOM): The Best Natural Gas and Oil Dividend Stock According to Hedge Funds</t>
+          <t>Dollar Tree, Inc. (NASDAQ:DLTR) Q1 2025 Earnings Call Transcript</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>39.93</v>
+        <v>36.02</v>
       </c>
       <c r="F199" t="n">
         <v>0</v>
       </c>
       <c r="G199" t="n">
-        <v>0.676</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
-        <v>0.324</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>0.7717000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B200" s="2" t="n">
@@ -7425,16 +7425,16 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>08:02AM</t>
+          <t>08:00AM</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>PetMed Express, Inc. (NASDAQ:PETS) Q4 2024 Earnings Call Transcript</t>
+          <t>Craig Morford to Retire as Vice President, General Counsel and Secretary; Jeff Taylor Elected as Vice President, General Counsel and Secretary</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>66.97</v>
+        <v>39.93</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
@@ -7452,36 +7452,36 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B201" s="2" t="n">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>08:02AM</t>
+          <t>03:14PM</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Mama's Creations, Inc. (NASDAQ:MAMA) Q1 2025 Earnings Call Transcript</t>
+          <t>Exxon Mobil Corporation (NYSE:XOM): The Best Natural Gas and Oil Dividend Stock According to Hedge Funds</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>66.97</v>
+        <v>39.93</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>0.755</v>
+        <v>0.676</v>
       </c>
       <c r="H201" t="n">
-        <v>0.245</v>
+        <v>0.324</v>
       </c>
       <c r="I201" t="n">
-        <v>0.3818</v>
+        <v>0.7717000000000001</v>
       </c>
     </row>
   </sheetData>
